--- a/wiki/RequisitosAnaliseProjeto/Tabela de Backlog.xlsx
+++ b/wiki/RequisitosAnaliseProjeto/Tabela de Backlog.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint4" sheetId="2" r:id="rId5"/>
+    <sheet name="Sprint5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>Sistema de Contas</t>
   </si>
@@ -33,9 +36,6 @@
     <t>Eu como gerente desejo ter um gráfico com as contas em geral de um determinado período parra avaliar o desempenho da empresa.</t>
   </si>
   <si>
-    <t>Eu como gerente necessito ter um relatório com as despesas pendentes para avaliar as dívidas da empresa.</t>
-  </si>
-  <si>
     <t>Eu como contador desejo ter um relatório das receitas de um determinado período para avaliar o desempenho da empresa.</t>
   </si>
   <si>
@@ -79,13 +79,203 @@
   </si>
   <si>
     <t>Eu como gerente desejo que o sistema estabeleça prioridades de pagamento para um melhor planejamento da quitação das dívidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Req</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Doing/WIP</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Eu como gerente desejo ver um resumo das receitas de acordo com seu status para melhorar o planejamento e controle.</t>
+  </si>
+  <si>
+    <t>Eu como gerente desejo ver um resumo das despesas de acordo com seu status para melhorar o planejamento e controle.</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Do </t>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Interface Gráfica</t>
+  </si>
+  <si>
+    <t>Cadastro das Receitas</t>
+  </si>
+  <si>
+    <t>Alteração das Receitas</t>
+  </si>
+  <si>
+    <t>Exclusão das Receitas</t>
+  </si>
+  <si>
+    <t>Consulta das Receitas</t>
+  </si>
+  <si>
+    <t>Relatório</t>
+  </si>
+  <si>
+    <t>Eu como gerente desejo ver um resumo com os saldos de acordo com o status para melhorar o planejamento e controle.</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Eu como gerente necessito ter um relatório com todas as despesas para avaliar as dívidas da empresa.</t>
+  </si>
+  <si>
+    <t>Eu como gerente necessito ter um relatório com as despesas de acordo com o seu status para avaliar as dívidas da empresa.</t>
+  </si>
+  <si>
+    <t>Eu como gerente necessito ter um relatório com as receitas de acordo com o seu status para avaliar as dívidas da empresa.</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Eu como contador desejo ver as despesas que irão vencer para avaliar as prioridades de pagamento.</t>
+  </si>
+  <si>
+    <t>Eu como contador desejo ver as receitas que irão vencer para avaliar as prioridades de cobrança.</t>
+  </si>
+  <si>
+    <t>Eu como gerente gostaria de consultar qualquer dado do sistema para agilizar uma eventual tomada de decisão.</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Eu como contador desejo que o sistema estabeleça prioridades de pagamento para melhorar o planejamento.</t>
+  </si>
+  <si>
+    <t>Eu como contador desejo que o sistema estabeleça prioridades de cobrança para melhorar o planejamento.</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>Cadastrar Projeção</t>
+  </si>
+  <si>
+    <t>Alterar Projeção</t>
+  </si>
+  <si>
+    <t>Excluir Projeção</t>
+  </si>
+  <si>
+    <t>Gráfico Anual</t>
+  </si>
+  <si>
+    <t>Cadastrars Despesas</t>
+  </si>
+  <si>
+    <t>Alterar Despesas</t>
+  </si>
+  <si>
+    <t>Excluir Despesas</t>
+  </si>
+  <si>
+    <t>Consultar Despesas</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Interfaces Gráficas</t>
+  </si>
+  <si>
+    <t>Relatório Despesas Pagas</t>
+  </si>
+  <si>
+    <t>Relatório Despesas Pendentes</t>
+  </si>
+  <si>
+    <t>Relatório Despesas Vencidas</t>
+  </si>
+  <si>
+    <t>Pesquisa nas Despesas</t>
+  </si>
+  <si>
+    <t>Pesquisa nas Receitas</t>
+  </si>
+  <si>
+    <t>Pesquisa nas Projeções da Despesas</t>
+  </si>
+  <si>
+    <t>Pesquisa nas Projeções da Receitas</t>
+  </si>
+  <si>
+    <t>Aldo</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>Humerto</t>
+  </si>
+  <si>
+    <t>Relatório Receitas Pagas</t>
+  </si>
+  <si>
+    <t>Relatório Receitas Pendentes</t>
+  </si>
+  <si>
+    <t>Relatório Receitas Vencidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +298,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,10 +329,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -140,12 +344,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,6 +375,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="381000"/>
+          <a:ext cx="5648325" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E21"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,20 +728,20 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -481,9 +750,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>500</v>
@@ -491,14 +763,17 @@
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <f>C4*(1/D4)</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E31" si="0">C4*(1/D4)</f>
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
@@ -506,14 +781,17 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
-        <f>C5*(1/D5)</f>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>800</v>
@@ -522,13 +800,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <f>C6*(1/D6)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>300</v>
@@ -537,13 +818,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f>C7*(1/D7)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>300</v>
@@ -552,13 +836,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <f>C8*(1/D8)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>300</v>
@@ -567,13 +854,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f>C9*(1/D9)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>300</v>
@@ -582,156 +872,361 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <f>C10*(1/D10)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <f>C11*(1/D11)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D12" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <f>C12*(1/D12)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
-        <f>C13*(1/D13)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
-        <f>C14*(1/D14)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*(1/D15)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*(1/D16)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <f>C17*(1/D17)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*(1/D18)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="2">
-        <v>200</v>
+        <f>SUM(C4:C18)</f>
+        <v>5400</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2">
-        <f>C19*(1/D19)</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <f>SUM(D4:D18)</f>
+        <v>35</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8">
+        <v>300</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <f>C21*(1/D21)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8">
+        <v>300</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <f>C22*(1/D22)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>800</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <f>C23*(1/D23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>800</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
+        <f>C24*(1/D24)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8">
+        <v>800</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8">
+        <f>C25*(1/D25)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8">
+        <v>500</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8">
+        <f>C26*(1/D26)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8">
+        <v>500</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8">
+        <f>C27*(1/D27)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8">
+        <v>200</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <f>C28*(1/D28)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8">
+        <v>500</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8">
+        <f>C29*(1/D29)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8">
+        <v>500</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <f>C30*(1/D30)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8">
+        <v>200</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9">
+        <f>C31*(1/D31)</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8">
+        <f>SUM(C4:C31)</f>
+        <v>16200</v>
+      </c>
+      <c r="D32" s="8">
+        <f>SUM(D4:D31)</f>
+        <v>123</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B4:E19">
@@ -747,24 +1242,638 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>